--- a/数据整理/stocks/A股/深证主板/002698-博实股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002698-博实股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>11.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.24</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.52</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6122</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -566,26 +596,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003670</t>
+          <t>710001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中融物联网主题灵活配置混合</t>
+          <t>富安达优势成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>81.01</t>
+          <t>9.17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6731</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -604,15 +644,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>70.20</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.87</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2408</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -632,15 +682,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>93.80</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>5.38</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -650,26 +710,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001531</t>
+          <t>002271</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>招商安益灵活配置混合</t>
+          <t>招商安弘灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>76.03</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -678,26 +748,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002271</t>
+          <t>003670</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>招商安弘灵活配置混合</t>
+          <t>中融物联网主题灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>77.58</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -706,26 +786,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>710001</t>
+          <t>001531</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富安达优势成长混合</t>
+          <t>招商安益灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.34</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>76.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002698-博实股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002698-博实股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3957</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002698-博实股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002698-博实股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -916,4 +917,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4186</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005674</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺德消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002698-博实股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002698-博实股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1087,4 +1088,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002698-博实股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002698-博实股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1096,7 +1097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1107,17 +1108,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1127,14 +1148,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>007726</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商瑞文混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0325</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.51</v>
       </c>
     </row>
     <row r="3">
@@ -1143,14 +1186,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4306</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.4</v>
       </c>
     </row>
     <row r="4">
@@ -1159,14 +1224,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
+          <t>011190</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商瑞安1年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>21.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3789</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1175,13 +1262,303 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>007725</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商瑞文混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2800</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011191</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商瑞安1年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1475</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007085</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商瑞庆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002574</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商瑞庆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.61</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002698-博实股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002698-博实股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1457,7 +1458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1468,17 +1469,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1488,14 +1509,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.43</v>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3589</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1504,14 +1547,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.51</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="4">
@@ -1520,14 +1653,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="5">
@@ -1536,14 +1669,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6">
@@ -1552,13 +1685,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.61</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002698-博实股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002698-博实股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1590,7 +1591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1601,17 +1602,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1621,14 +1642,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.38</v>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4159</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1637,14 +1680,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.43</v>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1653,14 +1718,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.51</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="5">
@@ -1669,14 +1840,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="6">
@@ -1685,14 +1856,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7">
@@ -1701,13 +1872,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.61</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002698-博实股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002698-博实股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0.44</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>2.43</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.51</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.61</v>
       </c>
     </row>
@@ -600,6 +617,480 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5895</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163804</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银收益混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5875</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银主题策略混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3839</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014103</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1482</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014505</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银收益混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1275</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015386</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银主题策略混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1148</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010965</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010962</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014104</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -769,7 +1260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -901,7 +1392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1261,7 +1752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1431,7 +1922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1525,7 +2016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1809,7 +2300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002698-博实股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002698-博实股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>2.13</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>0.44</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>2.43</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>0.51</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,128 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.61</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6122</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,26 +794,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.72</t>
+          <t>8.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>93.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5895</t>
+          <t>0.3956</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -721,26 +832,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18.71</t>
+          <t>15.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.44</t>
+          <t>88.15</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5875</t>
+          <t>0.3817</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -759,26 +870,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.67</t>
+          <t>17.43</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.71</t>
+          <t>87.27</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3839</t>
+          <t>0.3678</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -787,36 +898,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>014103</t>
+          <t>014505</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富安达成长价值一年持有期混合A</t>
+          <t>中银收益混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.66</t>
+          <t>88.15</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1482</t>
+          <t>0.1620</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -825,36 +936,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>014505</t>
+          <t>014103</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中银收益混合C</t>
+          <t>富安达成长价值一年持有期混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86.44</t>
+          <t>89.75</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1275</t>
+          <t>0.1194</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -873,26 +984,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.71</t>
+          <t>87.27</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1148</t>
+          <t>0.1025</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -911,26 +1022,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>86.59</t>
+          <t>88.64</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1021</t>
+          <t>0.0719</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -949,26 +1060,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>90.84</t>
+          <t>93.91</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>8.12</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0374</t>
+          <t>0.0194</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -987,26 +1098,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>86.59</t>
+          <t>88.64</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0212</t>
+          <t>0.0153</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1025,26 +1136,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>91.66</t>
+          <t>89.75</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0136</t>
+          <t>0.0114</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1063,26 +1174,26 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>86.44</t>
+          <t>88.15</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0009</t>
+          <t>0.0010</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1091,6 +1202,480 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5895</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163804</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银收益混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5875</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银主题策略混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3839</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014103</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1482</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014505</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银收益混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1275</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015386</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银主题策略混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1148</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010965</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010962</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014104</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1260,7 +1845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1392,7 +1977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1752,7 +2337,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1922,7 +2507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2016,7 +2601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2298,98 +2883,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>710001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富安达优势成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11.09</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6122</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>